--- a/function_ensemble/redes-ensemble-s/Teste02/content/results/metrics_4_2.xlsx
+++ b/function_ensemble/redes-ensemble-s/Teste02/content/results/metrics_4_2.xlsx
@@ -518,111 +518,111 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_4_2_1</t>
+          <t>model_4_2_4</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9660589376771552</v>
+        <v>0.9997675215838084</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7963349531936486</v>
+        <v>0.6821794662468073</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9856024673963911</v>
+        <v>0.9828655595289897</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9231488486618092</v>
+        <v>0.9999129597158898</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9682955857799485</v>
+        <v>0.9995192460954431</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2269640400370844</v>
+        <v>0.0001380092303959528</v>
       </c>
       <c r="H2" t="n">
-        <v>1.361909105785382</v>
+        <v>0.1886719979680888</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1908543044166934</v>
+        <v>0.0002299725084514159</v>
       </c>
       <c r="J2" t="n">
-        <v>0.7333308983983414</v>
+        <v>4.341047771706159e-05</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4620925872905905</v>
+        <v>0.0001366914930842388</v>
       </c>
       <c r="L2" t="n">
-        <v>0.6690623069631733</v>
+        <v>0.007221946996912396</v>
       </c>
       <c r="M2" t="n">
-        <v>0.4764074307114493</v>
+        <v>0.01174773298964327</v>
       </c>
       <c r="N2" t="n">
-        <v>1.022015824209413</v>
+        <v>1.000150796810503</v>
       </c>
       <c r="O2" t="n">
-        <v>0.4966890813361715</v>
+        <v>0.01224785830417217</v>
       </c>
       <c r="P2" t="n">
-        <v>124.9659273759662</v>
+        <v>139.7763799762334</v>
       </c>
       <c r="Q2" t="n">
-        <v>199.3173526929264</v>
+        <v>214.1278052931937</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_4_2_2</t>
+          <t>model_4_2_5</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9678309710262684</v>
+        <v>0.9998017501892076</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7962818051002374</v>
+        <v>0.682177794638519</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9840182478242886</v>
+        <v>0.9840484357897447</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9231723513148378</v>
+        <v>0.9999117793239189</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9675828508214348</v>
+        <v>0.9995461296233146</v>
       </c>
       <c r="G3" t="n">
-        <v>0.215114444872102</v>
+        <v>0.0001176896516322567</v>
       </c>
       <c r="H3" t="n">
-        <v>1.362264507330748</v>
+        <v>0.1886729903069784</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2118547864299205</v>
+        <v>0.0002140963541449058</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7331066308192613</v>
+        <v>4.399918649565778e-05</v>
       </c>
       <c r="K3" t="n">
-        <v>0.4724807161721426</v>
+        <v>0.0001290477703202818</v>
       </c>
       <c r="L3" t="n">
-        <v>0.628814691838474</v>
+        <v>0.006709225273900694</v>
       </c>
       <c r="M3" t="n">
-        <v>0.4638043174358147</v>
+        <v>0.01084848614472345</v>
       </c>
       <c r="N3" t="n">
-        <v>1.02086639717215</v>
+        <v>1.000128594471865</v>
       </c>
       <c r="O3" t="n">
-        <v>0.483549427436352</v>
+        <v>0.01131032865936652</v>
       </c>
       <c r="P3" t="n">
-        <v>125.0731701814922</v>
+        <v>140.094918938249</v>
       </c>
       <c r="Q3" t="n">
-        <v>199.4245954984524</v>
+        <v>214.4463442552092</v>
       </c>
     </row>
     <row r="4">
@@ -632,547 +632,547 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9690013250619202</v>
+        <v>0.9997250832601478</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7959335276804729</v>
+        <v>0.6821666786887082</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9820350910713616</v>
+        <v>0.9813934456975562</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9230374629262645</v>
+        <v>0.9999131370443062</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9666368473275782</v>
+        <v>0.9994846561089802</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2072882820467134</v>
+        <v>0.0001632024525610817</v>
       </c>
       <c r="H4" t="n">
-        <v>1.364593440040383</v>
+        <v>0.1886795892149702</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2381435966760783</v>
+        <v>0.0002497307089665459</v>
       </c>
       <c r="J4" t="n">
-        <v>0.7343937660339387</v>
+        <v>4.332203692954596e-05</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4862687394747685</v>
+        <v>0.0001465263729480459</v>
       </c>
       <c r="L4" t="n">
-        <v>0.5926924056350916</v>
+        <v>0.007791159103897676</v>
       </c>
       <c r="M4" t="n">
-        <v>0.4552892290036229</v>
+        <v>0.01277507152860921</v>
       </c>
       <c r="N4" t="n">
-        <v>1.020107248608484</v>
+        <v>1.000178324371796</v>
       </c>
       <c r="O4" t="n">
-        <v>0.4746718340609388</v>
+        <v>0.01331893277162584</v>
       </c>
       <c r="P4" t="n">
-        <v>125.1472895753711</v>
+        <v>139.4410381751988</v>
       </c>
       <c r="Q4" t="n">
-        <v>199.4987148923313</v>
+        <v>213.792463492159</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_4_2_0</t>
+          <t>model_4_2_6</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9634954850847137</v>
+        <v>0.9998293334496872</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7959246866628538</v>
+        <v>0.6821649761128425</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9866332318560177</v>
+        <v>0.984997088806093</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9228255925575953</v>
+        <v>0.9999098851447953</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9686585090937855</v>
+        <v>0.9995668588768137</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2441058593263547</v>
+        <v>0.0001013150366768294</v>
       </c>
       <c r="H5" t="n">
-        <v>1.364652559965911</v>
+        <v>0.1886805999375514</v>
       </c>
       <c r="I5" t="n">
-        <v>0.177190446908902</v>
+        <v>0.0002013638628687106</v>
       </c>
       <c r="J5" t="n">
-        <v>0.7364154805443234</v>
+        <v>4.494388953149713e-05</v>
       </c>
       <c r="K5" t="n">
-        <v>0.4568029714057161</v>
+        <v>0.0001231538762001039</v>
       </c>
       <c r="L5" t="n">
-        <v>0.7138652717644414</v>
+        <v>0.00624739425183495</v>
       </c>
       <c r="M5" t="n">
-        <v>0.4940707027606016</v>
+        <v>0.01006553707840915</v>
       </c>
       <c r="N5" t="n">
-        <v>1.023678604269375</v>
+        <v>1.00011070262723</v>
       </c>
       <c r="O5" t="n">
-        <v>0.5151043154444699</v>
+        <v>0.01049404783037122</v>
       </c>
       <c r="P5" t="n">
-        <v>124.8203065961527</v>
+        <v>140.3945514412783</v>
       </c>
       <c r="Q5" t="n">
-        <v>199.1717319131129</v>
+        <v>214.7459767582386</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_4_2_4</t>
+          <t>model_4_2_7</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9697221318144834</v>
+        <v>0.9998515401755234</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7954082341497029</v>
+        <v>0.6821435704762029</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9798003351846893</v>
+        <v>0.9857568434400443</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9228280156986109</v>
+        <v>0.9999074790008284</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9655520360348778</v>
+        <v>0.9995826806431023</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2024682439733129</v>
+        <v>8.813216493982619e-05</v>
       </c>
       <c r="H6" t="n">
-        <v>1.368106080299396</v>
+        <v>0.188693307248136</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2677676157378608</v>
+        <v>0.0001911667000682687</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7363923583900421</v>
+        <v>4.614392995098178e-05</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5020798897293257</v>
+        <v>0.0001186553150096253</v>
       </c>
       <c r="L6" t="n">
-        <v>0.5602472403853058</v>
+        <v>0.005831305737991944</v>
       </c>
       <c r="M6" t="n">
-        <v>0.4499647141424679</v>
+        <v>0.009387873291636727</v>
       </c>
       <c r="N6" t="n">
-        <v>1.019639698282497</v>
+        <v>1.000096298264525</v>
       </c>
       <c r="O6" t="n">
-        <v>0.4691206435788792</v>
+        <v>0.00978753449323847</v>
       </c>
       <c r="P6" t="n">
-        <v>125.1943444492359</v>
+        <v>140.6733459917103</v>
       </c>
       <c r="Q6" t="n">
-        <v>199.5457697661961</v>
+        <v>215.0247713086705</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_4_2_5</t>
+          <t>model_4_2_2</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9701125430032833</v>
+        <v>0.9996725257329053</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7947854631640326</v>
+        <v>0.6821357373073047</v>
       </c>
       <c r="D7" t="n">
-        <v>0.977440133503205</v>
+        <v>0.9795656988847562</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9225889324314279</v>
+        <v>0.999911974411277</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9644004593584321</v>
+        <v>0.9994404970915309</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1998575625561302</v>
+        <v>0.0001944028710991374</v>
       </c>
       <c r="H7" t="n">
-        <v>1.37227055274817</v>
+        <v>0.1886979573555693</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2990545495899763</v>
+        <v>0.0002742620918304824</v>
       </c>
       <c r="J7" t="n">
-        <v>0.7386737444729105</v>
+        <v>4.390188861229778e-05</v>
       </c>
       <c r="K7" t="n">
-        <v>0.5188641470314435</v>
+        <v>0.0001590819902213901</v>
       </c>
       <c r="L7" t="n">
-        <v>0.5310931604560415</v>
+        <v>0.008422932018709065</v>
       </c>
       <c r="M7" t="n">
-        <v>0.4470543172324031</v>
+        <v>0.013942843006329</v>
       </c>
       <c r="N7" t="n">
-        <v>1.019386458592465</v>
+        <v>1.000212415740818</v>
       </c>
       <c r="O7" t="n">
-        <v>0.4660863450470008</v>
+        <v>0.01453641869877237</v>
       </c>
       <c r="P7" t="n">
-        <v>125.2203007067585</v>
+        <v>139.091155794037</v>
       </c>
       <c r="Q7" t="n">
-        <v>199.5717260237187</v>
+        <v>213.4425811109973</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_4_2_6</t>
+          <t>model_4_2_8</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9702638196639904</v>
+        <v>0.9998693981835685</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7941174907722215</v>
+        <v>0.6821161434425651</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9750544276083102</v>
+        <v>0.9863638914589146</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9223400298333938</v>
+        <v>0.9999047332177856</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9632340879217096</v>
+        <v>0.9995946002757918</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1988459748294161</v>
+        <v>7.753087993849967e-05</v>
       </c>
       <c r="H8" t="n">
-        <v>1.376737287207941</v>
+        <v>0.1887095891200896</v>
       </c>
       <c r="I8" t="n">
-        <v>0.330679568379573</v>
+        <v>0.0001830191124136708</v>
       </c>
       <c r="J8" t="n">
-        <v>0.7410488288099922</v>
+        <v>4.751336198826983e-05</v>
       </c>
       <c r="K8" t="n">
-        <v>0.5358640383145969</v>
+        <v>0.0001152662372009703</v>
       </c>
       <c r="L8" t="n">
-        <v>0.5050214121991582</v>
+        <v>0.005456548426495347</v>
       </c>
       <c r="M8" t="n">
-        <v>0.4459214895353397</v>
+        <v>0.00880516211880847</v>
       </c>
       <c r="N8" t="n">
-        <v>1.019288333190925</v>
+        <v>1.000084714691739</v>
       </c>
       <c r="O8" t="n">
-        <v>0.4649052905295968</v>
+        <v>0.009180016099404496</v>
       </c>
       <c r="P8" t="n">
-        <v>125.2304494995583</v>
+        <v>140.9296685002921</v>
       </c>
       <c r="Q8" t="n">
-        <v>199.5818748165185</v>
+        <v>215.2810938172524</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_4_2_7</t>
+          <t>model_4_2_9</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9702448251719735</v>
+        <v>0.9998837420879214</v>
       </c>
       <c r="C9" t="n">
-        <v>0.793437694060765</v>
+        <v>0.6820845313217263</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9727161002111562</v>
+        <v>0.986846738600027</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9220881307731879</v>
+        <v>0.9999017921198726</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9620882600228353</v>
+        <v>0.9996034187272139</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1989729910849949</v>
+        <v>6.901571869016924e-05</v>
       </c>
       <c r="H9" t="n">
-        <v>1.381283090947626</v>
+        <v>0.1887283554405921</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3616765357884518</v>
+        <v>0.0001765385057998684</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7434525060602337</v>
+        <v>4.898020537832014e-05</v>
       </c>
       <c r="K9" t="n">
-        <v>0.5525645070476143</v>
+        <v>0.0001127589101046037</v>
       </c>
       <c r="L9" t="n">
-        <v>0.4819216490069514</v>
+        <v>0.005118934902162817</v>
       </c>
       <c r="M9" t="n">
-        <v>0.446063886775196</v>
+        <v>0.008307569963001771</v>
       </c>
       <c r="N9" t="n">
-        <v>1.019300653942504</v>
+        <v>1.000075410537564</v>
       </c>
       <c r="O9" t="n">
-        <v>0.4650537499147566</v>
+        <v>0.008661240415367342</v>
       </c>
       <c r="P9" t="n">
-        <v>125.2291723733197</v>
+        <v>141.1623525444144</v>
       </c>
       <c r="Q9" t="n">
-        <v>199.5805976902799</v>
+        <v>215.5137778613747</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_4_2_8</t>
+          <t>model_4_2_1</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9701069162850239</v>
+        <v>0.999607475415088</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7927665875607598</v>
+        <v>0.6820829677123174</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9704744425999604</v>
+        <v>0.9772985443608185</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9218339636465814</v>
+        <v>0.9999090420175124</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9609856625153788</v>
+        <v>0.9993844146741887</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1998951884470394</v>
+        <v>0.0002330195497829317</v>
       </c>
       <c r="H10" t="n">
-        <v>1.385770783203323</v>
+        <v>0.1887292836666816</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3913920444039977</v>
+        <v>0.0003046910523675393</v>
       </c>
       <c r="J10" t="n">
-        <v>0.7458778257080474</v>
+        <v>4.536439089472395e-05</v>
       </c>
       <c r="K10" t="n">
-        <v>0.5686348918030126</v>
+        <v>0.0001750277564223888</v>
       </c>
       <c r="L10" t="n">
-        <v>0.4610443771214313</v>
+        <v>0.009124282422331971</v>
       </c>
       <c r="M10" t="n">
-        <v>0.4470963972646608</v>
+        <v>0.01526497788347339</v>
       </c>
       <c r="N10" t="n">
-        <v>1.01939010835566</v>
+        <v>1.000254610541565</v>
       </c>
       <c r="O10" t="n">
-        <v>0.4661302165133493</v>
+        <v>0.0159148395948333</v>
       </c>
       <c r="P10" t="n">
-        <v>125.2199242151303</v>
+        <v>138.7287764065412</v>
       </c>
       <c r="Q10" t="n">
-        <v>199.5713495320906</v>
+        <v>213.0802017235014</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_4_2_9</t>
+          <t>model_4_2_10</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9698884032759465</v>
+        <v>0.9998952476427491</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7921170069615142</v>
+        <v>0.6820504608365604</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9683598395558936</v>
+        <v>0.9872293809887662</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9215779124718324</v>
+        <v>0.9998987412837361</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9599402246305426</v>
+        <v>0.9996097727198492</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2013563859448998</v>
+        <v>6.218552433039516e-05</v>
       </c>
       <c r="H11" t="n">
-        <v>1.390114531661521</v>
+        <v>0.1887485811523549</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4194233122749689</v>
+        <v>0.0001714028125668691</v>
       </c>
       <c r="J11" t="n">
-        <v>0.7483211233652073</v>
+        <v>5.050177961807422e-05</v>
       </c>
       <c r="K11" t="n">
-        <v>0.5838721737064885</v>
+        <v>0.0001109522960924717</v>
       </c>
       <c r="L11" t="n">
-        <v>0.4421703706481028</v>
+        <v>0.004815429428042774</v>
       </c>
       <c r="M11" t="n">
-        <v>0.4487275185955279</v>
+        <v>0.007885779880924598</v>
       </c>
       <c r="N11" t="n">
-        <v>1.01953184652371</v>
+        <v>1.000067947474974</v>
       </c>
       <c r="O11" t="n">
-        <v>0.4678307780561581</v>
+        <v>0.008221493856270306</v>
       </c>
       <c r="P11" t="n">
-        <v>125.2053577530874</v>
+        <v>141.3707766262232</v>
       </c>
       <c r="Q11" t="n">
-        <v>199.5567830700477</v>
+        <v>215.7222019431835</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_4_2_10</t>
+          <t>model_4_2_11</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9696173660549059</v>
+        <v>0.9999044641522439</v>
       </c>
       <c r="C12" t="n">
-        <v>0.79149632895323</v>
+        <v>0.6820151168295721</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9663886075712891</v>
+        <v>0.9875327888180295</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9213192229581063</v>
+        <v>0.9998956718896855</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9589591234544479</v>
+        <v>0.9996142418722319</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2031688130900099</v>
+        <v>5.671420616176815e-05</v>
       </c>
       <c r="H12" t="n">
-        <v>1.394265008360878</v>
+        <v>0.1887695628816848</v>
       </c>
       <c r="I12" t="n">
-        <v>0.445554047285169</v>
+        <v>0.0001673305780694813</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7507895966437954</v>
+        <v>5.203260943325983e-05</v>
       </c>
       <c r="K12" t="n">
-        <v>0.5981717465580432</v>
+        <v>0.0001096815937513706</v>
       </c>
       <c r="L12" t="n">
-        <v>0.4251055622248336</v>
+        <v>0.004544469798909863</v>
       </c>
       <c r="M12" t="n">
-        <v>0.4507425130714984</v>
+        <v>0.007530883491448274</v>
       </c>
       <c r="N12" t="n">
-        <v>1.019707654450872</v>
+        <v>1.000061969198545</v>
       </c>
       <c r="O12" t="n">
-        <v>0.4699315550185843</v>
+        <v>0.007851488792757171</v>
       </c>
       <c r="P12" t="n">
-        <v>125.1874361078893</v>
+        <v>141.5549716580452</v>
       </c>
       <c r="Q12" t="n">
-        <v>199.5388614248495</v>
+        <v>215.9063969750055</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_4_2_11</t>
+          <t>model_4_2_0</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.969314632715081</v>
+        <v>0.9995270268891999</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7909086474967216</v>
+        <v>0.6820042018507853</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9645666821707579</v>
+        <v>0.9744923195164635</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9210592029318098</v>
+        <v>0.9999037657838955</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9580454768851576</v>
+        <v>0.9993135534434197</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2051931923273776</v>
+        <v>0.0002807772699454657</v>
       </c>
       <c r="H13" t="n">
-        <v>1.398194836966573</v>
+        <v>0.1887760424845951</v>
       </c>
       <c r="I13" t="n">
-        <v>0.4697055678679608</v>
+        <v>0.0003423552275022266</v>
       </c>
       <c r="J13" t="n">
-        <v>0.7532707659713243</v>
+        <v>4.799586003801076e-05</v>
       </c>
       <c r="K13" t="n">
-        <v>0.6114881669196426</v>
+        <v>0.0001951755437701186</v>
       </c>
       <c r="L13" t="n">
-        <v>0.4096785712669946</v>
+        <v>0.009903410666600115</v>
       </c>
       <c r="M13" t="n">
-        <v>0.4529825519017014</v>
+        <v>0.01675640981670793</v>
       </c>
       <c r="N13" t="n">
-        <v>1.01990402202265</v>
+        <v>1.000306793369168</v>
       </c>
       <c r="O13" t="n">
-        <v>0.4722669569393087</v>
+        <v>0.01746976487315534</v>
       </c>
       <c r="P13" t="n">
-        <v>125.1676066840567</v>
+        <v>138.3558976731534</v>
       </c>
       <c r="Q13" t="n">
-        <v>199.519032001017</v>
+        <v>212.7073229901137</v>
       </c>
     </row>
     <row r="14">
@@ -1182,52 +1182,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9689953243724148</v>
+        <v>0.9999118324685394</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7903561865048536</v>
+        <v>0.6819792992290326</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9628934514053827</v>
+        <v>0.98777114629324</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9207991403229976</v>
+        <v>0.9998926417211502</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9571994265124322</v>
+        <v>0.9996172100788524</v>
       </c>
       <c r="G14" t="n">
-        <v>0.207328408685067</v>
+        <v>5.234005531405325e-05</v>
       </c>
       <c r="H14" t="n">
-        <v>1.401889146163044</v>
+        <v>0.1887908257566048</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4918859860442144</v>
+        <v>0.0001641314268293201</v>
       </c>
       <c r="J14" t="n">
-        <v>0.7557523416307548</v>
+        <v>5.354387591206028e-05</v>
       </c>
       <c r="K14" t="n">
-        <v>0.6238193711171847</v>
+        <v>0.0001088376513706902</v>
       </c>
       <c r="L14" t="n">
-        <v>0.3957381071882209</v>
+        <v>0.004300560739283483</v>
       </c>
       <c r="M14" t="n">
-        <v>0.4553332940660797</v>
+        <v>0.007234642721935428</v>
       </c>
       <c r="N14" t="n">
-        <v>1.020111140947623</v>
+        <v>1.000057189750137</v>
       </c>
       <c r="O14" t="n">
-        <v>0.4747177750643317</v>
+        <v>0.007542636440383231</v>
       </c>
       <c r="P14" t="n">
-        <v>125.146902455032</v>
+        <v>141.7154972080821</v>
       </c>
       <c r="Q14" t="n">
-        <v>199.4983277719922</v>
+        <v>216.0669225250423</v>
       </c>
     </row>
     <row r="15">
@@ -1237,52 +1237,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9686706010846919</v>
+        <v>0.9999177117042185</v>
       </c>
       <c r="C15" t="n">
-        <v>0.78983959382577</v>
+        <v>0.6819440003860272</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9613638728419847</v>
+        <v>0.9879576323370491</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9205416294099982</v>
+        <v>0.9998897038395309</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9564195642590376</v>
+        <v>0.9996190349323854</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2094998348052821</v>
+        <v>4.884988704520994e-05</v>
       </c>
       <c r="H15" t="n">
-        <v>1.405343603786766</v>
+        <v>0.1888117806746434</v>
       </c>
       <c r="I15" t="n">
-        <v>0.5121621445225671</v>
+        <v>0.0001616284759241814</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7582095684372372</v>
+        <v>5.500911520754809e-05</v>
       </c>
       <c r="K15" t="n">
-        <v>0.6351858819096599</v>
+        <v>0.0001083187955658647</v>
       </c>
       <c r="L15" t="n">
-        <v>0.3831432221471923</v>
+        <v>0.004081201709689218</v>
       </c>
       <c r="M15" t="n">
-        <v>0.4577115191966246</v>
+        <v>0.00698926942142095</v>
       </c>
       <c r="N15" t="n">
-        <v>1.020321772269389</v>
+        <v>1.000053376191858</v>
       </c>
       <c r="O15" t="n">
-        <v>0.4771972461622885</v>
+        <v>0.007286817090473096</v>
       </c>
       <c r="P15" t="n">
-        <v>125.1260646562784</v>
+        <v>141.8535169835127</v>
       </c>
       <c r="Q15" t="n">
-        <v>199.4774899732386</v>
+        <v>216.204942300473</v>
       </c>
     </row>
     <row r="16">
@@ -1292,52 +1292,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9683483812180614</v>
+        <v>0.9999223937849134</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7893586546763777</v>
+        <v>0.6819095715975699</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9599705627538775</v>
+        <v>0.9881028063609645</v>
       </c>
       <c r="E16" t="n">
-        <v>0.92028853241165</v>
+        <v>0.9998868604469116</v>
       </c>
       <c r="F16" t="n">
-        <v>0.955703111503899</v>
+        <v>0.9996199675922973</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2116545205371266</v>
+        <v>4.607040168933105e-05</v>
       </c>
       <c r="H16" t="n">
-        <v>1.408559646093274</v>
+        <v>0.1888322190907178</v>
       </c>
       <c r="I16" t="n">
-        <v>0.5306319222979489</v>
+        <v>0.0001596800006005614</v>
       </c>
       <c r="J16" t="n">
-        <v>0.7606246766815341</v>
+        <v>5.642722905225742e-05</v>
       </c>
       <c r="K16" t="n">
-        <v>0.645628197764974</v>
+        <v>0.0001080536148264094</v>
       </c>
       <c r="L16" t="n">
-        <v>0.3717703597336265</v>
+        <v>0.003883653128956533</v>
       </c>
       <c r="M16" t="n">
-        <v>0.460059257636586</v>
+        <v>0.006787518080221301</v>
       </c>
       <c r="N16" t="n">
-        <v>1.020530779750447</v>
+        <v>1.000050339166543</v>
       </c>
       <c r="O16" t="n">
-        <v>0.4796449326881276</v>
+        <v>0.007076476776995727</v>
       </c>
       <c r="P16" t="n">
-        <v>125.1055999073864</v>
+        <v>141.9706797198918</v>
       </c>
       <c r="Q16" t="n">
-        <v>199.4570252243467</v>
+        <v>216.3221050368521</v>
       </c>
     </row>
     <row r="17">
@@ -1347,52 +1347,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9680343049319314</v>
+        <v>0.9999261163357002</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7889125618458441</v>
+        <v>0.6818764819736396</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9587045991450043</v>
+        <v>0.9882156205992956</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9200421105081756</v>
+        <v>0.9998841668872355</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9550467336501939</v>
+        <v>0.9996202678929159</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2137547501086662</v>
+        <v>4.38605347365102e-05</v>
       </c>
       <c r="H17" t="n">
-        <v>1.411542670905121</v>
+        <v>0.1888518625208802</v>
       </c>
       <c r="I17" t="n">
-        <v>0.5474135897294757</v>
+        <v>0.0001581658470790659</v>
       </c>
       <c r="J17" t="n">
-        <v>0.7629760896755265</v>
+        <v>5.777061520379546e-05</v>
       </c>
       <c r="K17" t="n">
-        <v>0.6551949205106991</v>
+        <v>0.0001079682311414307</v>
       </c>
       <c r="L17" t="n">
-        <v>0.3615003715693261</v>
+        <v>0.003705814559457227</v>
       </c>
       <c r="M17" t="n">
-        <v>0.4623361873233224</v>
+        <v>0.006622728647356027</v>
       </c>
       <c r="N17" t="n">
-        <v>1.020734504909018</v>
+        <v>1.000047924539005</v>
       </c>
       <c r="O17" t="n">
-        <v>0.4820187959855226</v>
+        <v>0.006904671916812226</v>
       </c>
       <c r="P17" t="n">
-        <v>125.0858518973632</v>
+        <v>142.0689912463079</v>
       </c>
       <c r="Q17" t="n">
-        <v>199.4372772143234</v>
+        <v>216.4204165632682</v>
       </c>
     </row>
     <row r="18">
@@ -1402,52 +1402,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.967732245543654</v>
+        <v>0.9999290616328909</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7885001973949093</v>
+        <v>0.6818450257390906</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9575566943655824</v>
+        <v>0.9883011179944473</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9198041571047583</v>
+        <v>0.9998816212979721</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9544468274324466</v>
+        <v>0.9996200532265677</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2157746226289332</v>
+        <v>4.211207909387065e-05</v>
       </c>
       <c r="H18" t="n">
-        <v>1.414300153887286</v>
+        <v>0.1888705363005471</v>
       </c>
       <c r="I18" t="n">
-        <v>0.5626302642976067</v>
+        <v>0.0001570183307383738</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7652466943452874</v>
+        <v>5.904020258078176e-05</v>
       </c>
       <c r="K18" t="n">
-        <v>0.6639385678263845</v>
+        <v>0.0001080292666595778</v>
       </c>
       <c r="L18" t="n">
-        <v>0.352234614833298</v>
+        <v>0.003545792475761549</v>
       </c>
       <c r="M18" t="n">
-        <v>0.4645154708176394</v>
+        <v>0.006489382027117116</v>
       </c>
       <c r="N18" t="n">
-        <v>1.020930435323035</v>
+        <v>1.000046014075963</v>
       </c>
       <c r="O18" t="n">
-        <v>0.4842908560899315</v>
+        <v>0.006765648454884188</v>
       </c>
       <c r="P18" t="n">
-        <v>125.067041659576</v>
+        <v>142.1503518881685</v>
       </c>
       <c r="Q18" t="n">
-        <v>199.4184669765363</v>
+        <v>216.5017772051288</v>
       </c>
     </row>
     <row r="19">
@@ -1457,52 +1457,52 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9674447131728899</v>
+        <v>0.9999313879130323</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7881200314042497</v>
+        <v>0.6818152521606584</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9565172604078167</v>
+        <v>0.988366171670065</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9195760190031247</v>
+        <v>0.9998792293827362</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9538994558023914</v>
+        <v>0.9996194908182713</v>
       </c>
       <c r="G19" t="n">
-        <v>0.217697352916197</v>
+        <v>4.073109871186431e-05</v>
       </c>
       <c r="H19" t="n">
-        <v>1.416842325617329</v>
+        <v>0.188888211182856</v>
       </c>
       <c r="I19" t="n">
-        <v>0.5764090450413795</v>
+        <v>0.000156145202900257</v>
       </c>
       <c r="J19" t="n">
-        <v>0.7674236392070966</v>
+        <v>6.023314656193741e-05</v>
       </c>
       <c r="K19" t="n">
-        <v>0.6719165222836434</v>
+        <v>0.0001081891747310972</v>
       </c>
       <c r="L19" t="n">
-        <v>0.3438718699120216</v>
+        <v>0.003401832404038816</v>
       </c>
       <c r="M19" t="n">
-        <v>0.4665804892150945</v>
+        <v>0.006382092032544212</v>
       </c>
       <c r="N19" t="n">
-        <v>1.021116942806774</v>
+        <v>1.000044505137493</v>
       </c>
       <c r="O19" t="n">
-        <v>0.4864437865957437</v>
+        <v>0.006653790903121408</v>
       </c>
       <c r="P19" t="n">
-        <v>125.0492989402696</v>
+        <v>142.2170373223479</v>
       </c>
       <c r="Q19" t="n">
-        <v>199.4007242572299</v>
+        <v>216.5684626393081</v>
       </c>
     </row>
     <row r="20">
@@ -1512,52 +1512,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.967173327784084</v>
+        <v>0.9999332185004862</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7877704625230507</v>
+        <v>0.6817873042518148</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9555771513120616</v>
+        <v>0.9884146178494686</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9193591563003917</v>
+        <v>0.9998769994776165</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9534009597280091</v>
+        <v>0.9996186785235349</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2195121082607568</v>
+        <v>3.964438292195673e-05</v>
       </c>
       <c r="H20" t="n">
-        <v>1.419179894335524</v>
+        <v>0.1889048022688324</v>
       </c>
       <c r="I20" t="n">
-        <v>0.5888711711907724</v>
+        <v>0.0001554949751078071</v>
       </c>
       <c r="J20" t="n">
-        <v>0.7694929916872503</v>
+        <v>6.134528960577929e-05</v>
       </c>
       <c r="K20" t="n">
-        <v>0.6791821143607203</v>
+        <v>0.0001084201323567932</v>
       </c>
       <c r="L20" t="n">
-        <v>0.3363306832857307</v>
+        <v>0.003272134616235932</v>
       </c>
       <c r="M20" t="n">
-        <v>0.4685211929686391</v>
+        <v>0.006296378556119123</v>
       </c>
       <c r="N20" t="n">
-        <v>1.021292976572486</v>
+        <v>1.000043317729414</v>
       </c>
       <c r="O20" t="n">
-        <v>0.4884671101258872</v>
+        <v>0.006564428426553547</v>
       </c>
       <c r="P20" t="n">
-        <v>125.0326957701383</v>
+        <v>142.2711225729046</v>
       </c>
       <c r="Q20" t="n">
-        <v>199.3841210870986</v>
+        <v>216.6225478898649</v>
       </c>
     </row>
     <row r="21">
@@ -1567,52 +1567,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9669188858393023</v>
+        <v>0.9999346524328078</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7874496949931986</v>
+        <v>0.6817611578785716</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9547277527520126</v>
+        <v>0.9884505049624579</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9191539870171391</v>
+        <v>0.9998749151866306</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9529475464493514</v>
+        <v>0.99961769864296</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2212135627171098</v>
+        <v>3.879313875323837e-05</v>
       </c>
       <c r="H21" t="n">
-        <v>1.421324868284644</v>
+        <v>0.1889203238854541</v>
       </c>
       <c r="I21" t="n">
-        <v>0.6001308346215775</v>
+        <v>0.0001550133107424503</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7714507629397483</v>
+        <v>6.238480904583616e-05</v>
       </c>
       <c r="K21" t="n">
-        <v>0.6857906236235817</v>
+        <v>0.0001086987392231217</v>
       </c>
       <c r="L21" t="n">
-        <v>0.3295256438161511</v>
+        <v>0.003155410708333929</v>
       </c>
       <c r="M21" t="n">
-        <v>0.4703334590661287</v>
+        <v>0.006228413823216821</v>
       </c>
       <c r="N21" t="n">
-        <v>1.021458019996128</v>
+        <v>1.000042387611152</v>
       </c>
       <c r="O21" t="n">
-        <v>0.490356528143055</v>
+        <v>0.0064935702942652</v>
       </c>
       <c r="P21" t="n">
-        <v>125.0172533938819</v>
+        <v>142.3145343264583</v>
       </c>
       <c r="Q21" t="n">
-        <v>199.3686787108421</v>
+        <v>216.6659596434186</v>
       </c>
     </row>
     <row r="22">
@@ -1622,52 +1622,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9666814991072463</v>
+        <v>0.9999357685118251</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7871559665071003</v>
+        <v>0.6817369307506788</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9539604696496207</v>
+        <v>0.9884753674424336</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9189610350050056</v>
+        <v>0.9998730062698389</v>
       </c>
       <c r="F22" t="n">
-        <v>0.952535450297474</v>
+        <v>0.9996166101106211</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2228009688874336</v>
+        <v>3.813058603644209e-05</v>
       </c>
       <c r="H22" t="n">
-        <v>1.423289032023678</v>
+        <v>0.1889347061551287</v>
       </c>
       <c r="I22" t="n">
-        <v>0.6103019720539036</v>
+        <v>0.0001546796151720564</v>
       </c>
       <c r="J22" t="n">
-        <v>0.7732919542549309</v>
+        <v>6.33368623473474e-05</v>
       </c>
       <c r="K22" t="n">
-        <v>0.6917969347861812</v>
+        <v>0.0001090082387597019</v>
       </c>
       <c r="L22" t="n">
-        <v>0.3233940813370093</v>
+        <v>0.003050396930695322</v>
       </c>
       <c r="M22" t="n">
-        <v>0.4720179751740749</v>
+        <v>0.006174996845055234</v>
       </c>
       <c r="N22" t="n">
-        <v>1.021612000579083</v>
+        <v>1.000041663668005</v>
       </c>
       <c r="O22" t="n">
-        <v>0.4921127575891455</v>
+        <v>0.006437879244754887</v>
       </c>
       <c r="P22" t="n">
-        <v>125.0029528445032</v>
+        <v>142.3489876295618</v>
       </c>
       <c r="Q22" t="n">
-        <v>199.3543781614634</v>
+        <v>216.7004129465221</v>
       </c>
     </row>
     <row r="23">
@@ -1677,52 +1677,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9664612384410383</v>
+        <v>0.9999366328643979</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7868874216918182</v>
+        <v>0.6817144774322343</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9532681026510482</v>
+        <v>0.9884931097674378</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9187806325540524</v>
+        <v>0.9998712254258811</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9521615336630914</v>
+        <v>0.9996154669795108</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2242738529765742</v>
+        <v>3.76174690111402e-05</v>
       </c>
       <c r="H23" t="n">
-        <v>1.425084792440004</v>
+        <v>0.1889480354148902</v>
       </c>
       <c r="I23" t="n">
-        <v>0.6194800184283554</v>
+        <v>0.0001544414838485464</v>
       </c>
       <c r="J23" t="n">
-        <v>0.7750133948466087</v>
+        <v>6.422504059417717e-05</v>
       </c>
       <c r="K23" t="n">
-        <v>0.6972467785780767</v>
+        <v>0.0001093332622213618</v>
       </c>
       <c r="L23" t="n">
-        <v>0.3178629851699389</v>
+        <v>0.002960209562505912</v>
       </c>
       <c r="M23" t="n">
-        <v>0.4735756042878204</v>
+        <v>0.006133308162088401</v>
       </c>
       <c r="N23" t="n">
-        <v>1.02175487236257</v>
+        <v>1.000041103006877</v>
       </c>
       <c r="O23" t="n">
-        <v>0.4937366981989998</v>
+        <v>0.006394415788246685</v>
       </c>
       <c r="P23" t="n">
-        <v>124.9897748318227</v>
+        <v>142.3760840282042</v>
       </c>
       <c r="Q23" t="n">
-        <v>199.341200148783</v>
+        <v>216.7275093451645</v>
       </c>
     </row>
     <row r="24">
@@ -1732,52 +1732,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9662575661144158</v>
+        <v>0.9999372976479565</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7866423436390472</v>
+        <v>0.6816937328170314</v>
       </c>
       <c r="D24" t="n">
-        <v>0.952643507466413</v>
+        <v>0.9885043727681848</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9186125573762955</v>
+        <v>0.9998696028838067</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9518224585002046</v>
+        <v>0.9996143085808744</v>
       </c>
       <c r="G24" t="n">
-        <v>0.225635810762523</v>
+        <v>3.722282477360671e-05</v>
       </c>
       <c r="H24" t="n">
-        <v>1.426723630507365</v>
+        <v>0.1889603503145953</v>
       </c>
       <c r="I24" t="n">
-        <v>0.6277596787554098</v>
+        <v>0.0001542903157646588</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7766172058365124</v>
+        <v>6.503426734809554e-05</v>
       </c>
       <c r="K24" t="n">
-        <v>0.702188807098673</v>
+        <v>0.0001096626266585216</v>
       </c>
       <c r="L24" t="n">
-        <v>0.312879567342382</v>
+        <v>0.002880264112646233</v>
       </c>
       <c r="M24" t="n">
-        <v>0.4750113796137131</v>
+        <v>0.006101051120389561</v>
       </c>
       <c r="N24" t="n">
-        <v>1.021886984142001</v>
+        <v>1.00004067179592</v>
       </c>
       <c r="O24" t="n">
-        <v>0.4952335974529805</v>
+        <v>0.006360785497501444</v>
       </c>
       <c r="P24" t="n">
-        <v>124.9776660726118</v>
+        <v>142.3971768313176</v>
       </c>
       <c r="Q24" t="n">
-        <v>199.3290913895721</v>
+        <v>216.7486021482779</v>
       </c>
     </row>
     <row r="25">
@@ -1787,52 +1787,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.966069880879733</v>
+        <v>0.9999378035522785</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7864190055097383</v>
+        <v>0.6816747302667163</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9520802005369416</v>
+        <v>0.9885113621773922</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9184565782584757</v>
+        <v>0.9998681082253015</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9515152513753803</v>
+        <v>0.9996131638327146</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2268908627910586</v>
+        <v>3.692249811418151e-05</v>
       </c>
       <c r="H25" t="n">
-        <v>1.428217093606431</v>
+        <v>0.1889716310493298</v>
       </c>
       <c r="I25" t="n">
-        <v>0.6352268993658644</v>
+        <v>0.0001541965063420087</v>
       </c>
       <c r="J25" t="n">
-        <v>0.7781055935133456</v>
+        <v>6.577971344120812e-05</v>
       </c>
       <c r="K25" t="n">
-        <v>0.706666358210607</v>
+        <v>0.0001099881098916084</v>
       </c>
       <c r="L25" t="n">
-        <v>0.3083891489854589</v>
+        <v>0.0028083951379277</v>
       </c>
       <c r="M25" t="n">
-        <v>0.4763306234025465</v>
+        <v>0.0060763885749828</v>
       </c>
       <c r="N25" t="n">
-        <v>1.022008725915849</v>
+        <v>1.000040343641765</v>
       </c>
       <c r="O25" t="n">
-        <v>0.4966090041811156</v>
+        <v>0.006335073016478211</v>
       </c>
       <c r="P25" t="n">
-        <v>124.9665723155379</v>
+        <v>142.413378975442</v>
       </c>
       <c r="Q25" t="n">
-        <v>199.3179976324981</v>
+        <v>216.7648042924022</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9658974029033015</v>
+        <v>0.9999381841865986</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7862156641962562</v>
+        <v>0.6816573377963928</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9515722816441099</v>
+        <v>0.9885147164992534</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9183124168927003</v>
+        <v>0.9998667401511979</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9512370909027015</v>
+        <v>0.9996120431301291</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2280442238136439</v>
+        <v>3.669653713914313e-05</v>
       </c>
       <c r="H26" t="n">
-        <v>1.429576837905986</v>
+        <v>0.1889819559710295</v>
       </c>
       <c r="I26" t="n">
-        <v>0.64195989380737</v>
+        <v>0.000154151485799093</v>
       </c>
       <c r="J26" t="n">
-        <v>0.7794812135533529</v>
+        <v>6.646202682052342e-05</v>
       </c>
       <c r="K26" t="n">
-        <v>0.7107205536803614</v>
+        <v>0.0001103067563098082</v>
       </c>
       <c r="L26" t="n">
-        <v>0.3043426369204771</v>
+        <v>0.002743640941029752</v>
       </c>
       <c r="M26" t="n">
-        <v>0.4775397615001749</v>
+        <v>0.006057766679160161</v>
       </c>
       <c r="N26" t="n">
-        <v>1.022120603522183</v>
+        <v>1.000040096743828</v>
       </c>
       <c r="O26" t="n">
-        <v>0.497869617790821</v>
+        <v>0.006315658347997763</v>
       </c>
       <c r="P26" t="n">
-        <v>124.9564314094827</v>
+        <v>142.4256563264744</v>
       </c>
       <c r="Q26" t="n">
-        <v>199.307856726443</v>
+        <v>216.7770816434347</v>
       </c>
     </row>
   </sheetData>
